--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2127.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2127.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>0.9480683207511902</v>
       </c>
       <c r="B1">
-        <v>2.323143009038222</v>
+        <v>3.091810703277588</v>
       </c>
       <c r="C1">
-        <v>1.285022391212957</v>
+        <v>2.756330966949463</v>
       </c>
       <c r="D1">
-        <v>1.041489049371094</v>
+        <v>1.566226601600647</v>
       </c>
       <c r="E1">
-        <v>0.9481536233729215</v>
+        <v>1.203850746154785</v>
       </c>
     </row>
   </sheetData>
